--- a/tests/Test_plates/Test_plate_4_repeat_1.xlsx
+++ b/tests/Test_plates/Test_plate_4_repeat_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks17361/Lab_work_Dek_Woolfson/BADASS/sensing_array_paper_2019/tests/Test_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947212B7-D2EC-0249-8D85-44749E2B6C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B857B12-0918-164D-B73C-678CC289564D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="780" windowWidth="28560" windowHeight="15780" xr2:uid="{CA958F12-1D85-1343-8154-C7B58881A005}"/>
+    <workbookView xWindow="180" yWindow="600" windowWidth="28560" windowHeight="15780" xr2:uid="{CA958F12-1D85-1343-8154-C7B58881A005}"/>
   </bookViews>
   <sheets>
     <sheet name="End point" sheetId="1" r:id="rId1"/>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523997CE-C318-5648-AECB-3A4411035A34}">
   <dimension ref="A3:Y77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55:Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3751,7 +3751,7 @@
   <dimension ref="A2:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
